--- a/DiccionariodeDatos.xlsx
+++ b/DiccionariodeDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOVA\Desktop\UNIVERSIDAD 21\2022-1SEM-A\DESARROLLO WEB\PARTE1\TP3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesaWeb\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996F322C-2061-4B5C-AFEE-705B3B982C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1707C0-69BB-4491-8FD5-F46AB987BC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="825" windowWidth="19485" windowHeight="14655" xr2:uid="{7DA8D0A1-38DA-4625-B90F-055A91D1EA62}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22050" windowHeight="14475" xr2:uid="{7DA8D0A1-38DA-4625-B90F-055A91D1EA62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -103,15 +103,15 @@
 ('Ramon', 'Gomez', 29789325, 'Rivadavia 15464, haedo', 'rgomez@asf.com', '1155665544', '')</t>
   </si>
   <si>
+    <t>SELECT  * FROM  clientes</t>
+  </si>
+  <si>
+    <t>DELETE FROM clientes WHERE dni=135783534</t>
+  </si>
+  <si>
     <t>UPDATE clientes
-SET email = 'jojojo@gmail.com'
+SET email = 'probamos@gmail.com'
 WHERE dni = 135783534,</t>
-  </si>
-  <si>
-    <t>SELECT  * FROM  clientes</t>
-  </si>
-  <si>
-    <t>DELETE FROM clientes WHERE dni=135783534</t>
   </si>
 </sst>
 </file>
@@ -181,9 +181,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,6 +188,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,7 +516,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,152 +528,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>150</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>150</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>50</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>250</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
     </row>
     <row r="17" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -695,7 +695,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -711,12 +711,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
